--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1300922.151592553</v>
+        <v>1321053.798529915</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111175</v>
+        <v>713587.7684111181</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>214.0077506398264</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.706013313191401</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -756,7 +756,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>12.27404338834294</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>108.1960350243787</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>225.4542698385318</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>62.24100452231472</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>69.82558204839835</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>197.7733550620193</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>196.9826481283071</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>92.7794038295679</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>151.0565624542425</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>55.78398704713972</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>244.4874394051615</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,10 +1449,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>36.85927273877844</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>48.98427584501901</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>103.3249685652703</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.06064116356413</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>117.3450705775783</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>28.74633083442705</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>46.94271415388204</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21.3881647021493</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.06064116356411</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,25 +1889,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>47.74806282379132</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>292.4478524511684</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>3.062277887576959</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>48.98427584501924</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>99.78974769572879</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>98.68313739545469</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>21.40248296244335</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,16 +2090,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>64.47369007202914</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>128.4562226808342</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.0282495084215</v>
@@ -2178,7 +2178,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
@@ -2217,16 +2217,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>46.85695135357136</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2251,16 +2251,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.10025707614069</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>39.19479062707046</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>159.1872506763357</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>70.62611983656795</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2397,25 +2397,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>6.719253572851135</v>
+        <v>35.62533723234271</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
@@ -2454,16 +2454,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>31.56348238011598</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>122.6711488329946</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>141.6396260835076</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,10 +2640,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>41.19875901775777</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>46.89468071824626</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2770,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>381.1883785395118</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.744192916501742</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>99.87810784810608</v>
       </c>
       <c r="U30" t="n">
-        <v>85.08206208135961</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>145.6674229028285</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>39.19479062707047</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>159.9594203774901</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>221.5974673091477</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>113.4883178883721</v>
+        <v>98.8792327893548</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206407878966</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3187,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>9.637108967925821</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>73.36175976093794</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>355.9187482306841</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>187.7594695105699</v>
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>150.3319148090941</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3360,10 +3360,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>90.67936455691034</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>48.98427584501924</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3424,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>42.05930342856828</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>83.58010552472335</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>142.4984704850175</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>281.6324150430731</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3582,7 +3582,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.53005148199028</v>
       </c>
       <c r="S39" t="n">
-        <v>87.3028380711265</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
         <v>198.8939788055617</v>
@@ -3639,10 +3639,10 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.65031255674068</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>7.42522453130207</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
@@ -3873,13 +3873,13 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>154.0931914695966</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.78974769572879</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>106.9147497326712</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>3.592249151376229</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>265.5170693006207</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4059,13 +4059,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>34.31881265622914</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.94629508123412</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4144,19 +4144,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>12.35168551462431</v>
       </c>
       <c r="I46" t="n">
-        <v>21.3881647021494</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>74.67247646141475</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467.067986854209</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="C2" t="n">
-        <v>467.067986854209</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="D2" t="n">
-        <v>297.2027203719481</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4361,19 +4361,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="Y2" t="n">
         <v>710.516763498309</v>
-      </c>
-      <c r="V2" t="n">
-        <v>710.516763498309</v>
-      </c>
-      <c r="W2" t="n">
-        <v>710.516763498309</v>
-      </c>
-      <c r="X2" t="n">
-        <v>467.067986854209</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>467.067986854209</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>284.5332603973924</v>
+        <v>273.858482543704</v>
       </c>
       <c r="C3" t="n">
-        <v>284.5332603973924</v>
+        <v>273.858482543704</v>
       </c>
       <c r="D3" t="n">
-        <v>284.5332603973924</v>
+        <v>273.858482543704</v>
       </c>
       <c r="E3" t="n">
-        <v>284.5332603973924</v>
+        <v>273.858482543704</v>
       </c>
       <c r="F3" t="n">
-        <v>284.5332603973924</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>145.8024349800079</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>32.43329938758727</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4416,10 +4416,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>492.3847606029253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>284.5332603973924</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y3" t="n">
-        <v>284.5332603973924</v>
+        <v>273.858482543704</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.0282188019862</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C5" t="n">
-        <v>266.0282188019862</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D5" t="n">
-        <v>266.0282188019862</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>266.0282188019862</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>259.0827180527828</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>509.4769954460863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>509.4769954460863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>509.4769954460863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>509.4769954460863</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.4769954460863</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354.5646924921614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>180.1116632110344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>180.1116632110344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>180.1116632110344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>180.1116632110344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1116632110344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4653,10 +4653,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>562.4161926976942</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>562.4161926976942</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W6" t="n">
-        <v>562.4161926976942</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>354.5646924921614</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>354.5646924921614</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="C8" t="n">
-        <v>278.1872303756613</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="D8" t="n">
-        <v>278.1872303756613</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="E8" t="n">
-        <v>278.1872303756613</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>254.2858631377404</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>536.8878951967741</v>
+        <v>739.4943568267907</v>
       </c>
       <c r="C9" t="n">
-        <v>362.4348659156472</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="D9" t="n">
-        <v>362.4348659156472</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E9" t="n">
-        <v>362.4348659156472</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>536.8878951967741</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>536.8878951967741</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>536.8878951967741</v>
+        <v>907.7096938468587</v>
       </c>
       <c r="W9" t="n">
-        <v>536.8878951967741</v>
+        <v>907.7096938468587</v>
       </c>
       <c r="X9" t="n">
-        <v>536.8878951967741</v>
+        <v>907.7096938468587</v>
       </c>
       <c r="Y9" t="n">
-        <v>536.8878951967741</v>
+        <v>907.7096938468587</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="C11" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="D11" t="n">
-        <v>1264.700589380859</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="E11" t="n">
-        <v>878.9123367826146</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="F11" t="n">
-        <v>878.9123367826146</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G11" t="n">
-        <v>469.0723650685718</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,28 +5063,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V11" t="n">
-        <v>1622.966287987609</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W11" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X11" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="Y11" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805379</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>703.5042351695847</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C12" t="n">
-        <v>703.5042351695847</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D12" t="n">
         <v>666.272646544556</v>
@@ -5115,22 +5115,22 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L12" t="n">
-        <v>256.6067387278474</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M12" t="n">
-        <v>656.0248753321104</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O12" t="n">
         <v>1380.722538783602</v>
@@ -5142,28 +5142,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W12" t="n">
-        <v>1287.331371160139</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X12" t="n">
-        <v>1079.479870954607</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y12" t="n">
-        <v>871.7195721896528</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5218,31 +5218,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="C14" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="D14" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="E14" t="n">
         <v>32.45932575975219</v>
@@ -5279,10 +5279,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011322</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
         <v>838.8947028941458</v>
@@ -5291,13 +5291,13 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
         <v>1508.970645214178</v>
@@ -5318,10 +5318,10 @@
         <v>150.9897000805384</v>
       </c>
       <c r="X14" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>910.3247089140674</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C15" t="n">
-        <v>735.8716796329404</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D15" t="n">
-        <v>586.9372699716891</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E15" t="n">
-        <v>427.6998149662337</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F15" t="n">
-        <v>281.1652569931187</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G15" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K15" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L15" t="n">
-        <v>505.948365158507</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M15" t="n">
-        <v>905.36650176277</v>
+        <v>546.7891136313475</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.050658039703</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O15" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1541.568727888341</v>
+        <v>1593.929590175057</v>
       </c>
       <c r="T15" t="n">
-        <v>1541.568727888341</v>
+        <v>1593.929590175057</v>
       </c>
       <c r="U15" t="n">
-        <v>1541.568727888341</v>
+        <v>1365.726922712535</v>
       </c>
       <c r="V15" t="n">
-        <v>1541.568727888341</v>
+        <v>1365.726922712535</v>
       </c>
       <c r="W15" t="n">
-        <v>1494.151844904622</v>
+        <v>1365.726922712535</v>
       </c>
       <c r="X15" t="n">
-        <v>1286.300344699089</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="Y15" t="n">
-        <v>1078.540045934135</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
         <v>32.45932575975219</v>
@@ -5458,28 +5458,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>129.4902764300189</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1574.735921498931</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C17" t="n">
-        <v>1574.735921498931</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D17" t="n">
-        <v>1574.735921498931</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E17" t="n">
-        <v>1188.947668900687</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1076971866441</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G17" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
         <v>519.4894913528326</v>
@@ -5537,28 +5537,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1574.735921498931</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1574.735921498931</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T17" t="n">
-        <v>1574.735921498931</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U17" t="n">
-        <v>1574.735921498931</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="V17" t="n">
-        <v>1574.735921498931</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="W17" t="n">
-        <v>1574.735921498931</v>
+        <v>405.9250840208321</v>
       </c>
       <c r="X17" t="n">
-        <v>1574.735921498931</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y17" t="n">
-        <v>1574.735921498931</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L18" t="n">
-        <v>256.6067387278474</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>656.0248753321104</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609044</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O18" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P18" t="n">
         <v>1622.966287987609</v>
@@ -5622,16 +5622,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.966287987609</v>
+        <v>1619.873078000158</v>
       </c>
       <c r="U18" t="n">
-        <v>1622.966287987609</v>
+        <v>1619.873078000158</v>
       </c>
       <c r="V18" t="n">
-        <v>1622.966287987609</v>
+        <v>1619.873078000158</v>
       </c>
       <c r="W18" t="n">
-        <v>1573.487221477489</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="X18" t="n">
         <v>1365.635721271956</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5701,22 +5701,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U19" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1221.10178612825</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="C20" t="n">
-        <v>852.139269187838</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="D20" t="n">
-        <v>852.139269187838</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="E20" t="n">
-        <v>852.139269187838</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="F20" t="n">
-        <v>442.299297473795</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O20" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P20" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1286.226725594946</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U20" t="n">
-        <v>1286.226725594946</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V20" t="n">
-        <v>1286.226725594946</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W20" t="n">
-        <v>1221.10178612825</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X20" t="n">
-        <v>1221.10178612825</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y20" t="n">
-        <v>1221.10178612825</v>
+        <v>1400.222368368377</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>281.1652569931187</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="C21" t="n">
-        <v>281.1652569931187</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D21" t="n">
-        <v>281.1652569931187</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E21" t="n">
-        <v>281.1652569931187</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F21" t="n">
-        <v>281.1652569931187</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G21" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9399761455072</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M21" t="n">
-        <v>758.3581127497703</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N21" t="n">
-        <v>948.4732699082811</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O21" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.96628798761</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1422.063279093103</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>1193.860611630581</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V21" t="n">
-        <v>958.7085033988385</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="W21" t="n">
-        <v>704.4711466706369</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="X21" t="n">
-        <v>657.1408927781406</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="Y21" t="n">
-        <v>449.3805940131867</v>
+        <v>944.9608164894781</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C22" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D22" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E22" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="F22" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="G22" t="n">
-        <v>72.05002336285366</v>
+        <v>1453.545409657094</v>
       </c>
       <c r="H22" t="n">
-        <v>72.05002336285366</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="I22" t="n">
-        <v>72.05002336285366</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L22" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M22" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N22" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U22" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V22" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W22" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X22" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y22" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>562.2170454035333</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C23" t="n">
-        <v>193.2545284631216</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011319</v>
@@ -6014,25 +6014,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S23" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T23" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U23" t="n">
-        <v>948.8168854676551</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V23" t="n">
-        <v>948.8168854676551</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W23" t="n">
-        <v>948.8168854676551</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="X23" t="n">
-        <v>948.8168854676551</v>
+        <v>1178.161014740097</v>
       </c>
       <c r="Y23" t="n">
-        <v>948.8168854676551</v>
+        <v>788.0216827642857</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32.45932575975219</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C24" t="n">
-        <v>32.45932575975219</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975219</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975219</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321105</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1534.78160306728</v>
+        <v>1586.981098864031</v>
       </c>
       <c r="T24" t="n">
-        <v>1333.878594172773</v>
+        <v>1386.078089969524</v>
       </c>
       <c r="U24" t="n">
-        <v>1105.675926710251</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="V24" t="n">
-        <v>870.5238184785085</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="W24" t="n">
-        <v>616.2864617503069</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="X24" t="n">
-        <v>408.4349615447741</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="Y24" t="n">
-        <v>200.6746627798202</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975219</v>
+        <v>329.3642961684895</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6169,28 +6169,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.45932575975218</v>
+        <v>883.5977926533735</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975218</v>
+        <v>514.6352757129619</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975218</v>
+        <v>156.3695771062114</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J26" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
         <v>519.4894913528326</v>
@@ -6257,19 +6257,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1479.895958610329</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>1148.833071266758</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W26" t="n">
-        <v>796.0644159966438</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X26" t="n">
-        <v>422.5986577355639</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.45932575975218</v>
+        <v>1270.197632717495</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>515.0842197075859</v>
+        <v>502.3813226752455</v>
       </c>
       <c r="C27" t="n">
-        <v>340.6311904264589</v>
+        <v>327.9282933941185</v>
       </c>
       <c r="D27" t="n">
-        <v>191.6967807652077</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975218</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K27" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L27" t="n">
-        <v>330.1910807414154</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M27" t="n">
-        <v>729.6092173456784</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O27" t="n">
         <v>1380.722538783602</v>
@@ -6330,25 +6330,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1581.351379888864</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1581.351379888864</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U27" t="n">
-        <v>1353.148712426342</v>
+        <v>1575.597923625744</v>
       </c>
       <c r="V27" t="n">
-        <v>1353.148712426342</v>
+        <v>1340.445815394002</v>
       </c>
       <c r="W27" t="n">
-        <v>1098.911355698141</v>
+        <v>1086.2084586658</v>
       </c>
       <c r="X27" t="n">
-        <v>891.0598554926078</v>
+        <v>878.3569584602674</v>
       </c>
       <c r="Y27" t="n">
-        <v>683.2995567276539</v>
+        <v>670.5966596953135</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6418,16 +6418,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W28" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1237.927521786082</v>
+        <v>811.2618144142066</v>
       </c>
       <c r="C29" t="n">
-        <v>1237.927521786082</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D29" t="n">
-        <v>1237.927521786082</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E29" t="n">
-        <v>852.1392691878377</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F29" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975208</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975208</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975208</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975208</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K29" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6485,28 +6485,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1618.174173930537</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1420.605574097561</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1197.861654478328</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.966287987609</v>
+        <v>1197.861654478328</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.966287987609</v>
+        <v>1197.861654478328</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.966287987609</v>
+        <v>1197.861654478328</v>
       </c>
       <c r="X29" t="n">
-        <v>1622.966287987609</v>
+        <v>1197.861654478328</v>
       </c>
       <c r="Y29" t="n">
-        <v>1622.966287987609</v>
+        <v>1197.861654478328</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>666.272646544556</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C30" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D30" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E30" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F30" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G30" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9399761455072</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M30" t="n">
-        <v>656.0248753321102</v>
+        <v>546.7891136313475</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T30" t="n">
-        <v>1422.063279093102</v>
+        <v>1273.179515222157</v>
       </c>
       <c r="U30" t="n">
-        <v>1336.121802243244</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="V30" t="n">
-        <v>1336.121802243244</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W30" t="n">
-        <v>1081.884445515043</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X30" t="n">
-        <v>874.0329453095098</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y30" t="n">
-        <v>666.272646544556</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1294.179012144411</v>
+        <v>1441.31782315737</v>
       </c>
       <c r="C31" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D31" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E31" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F31" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G31" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H31" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I31" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K31" t="n">
         <v>1302.533129726572</v>
@@ -6649,22 +6649,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T31" t="n">
-        <v>1583.375590384508</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U31" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V31" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W31" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X31" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y31" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.2627134053891</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C32" t="n">
-        <v>552.3001964649775</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D32" t="n">
-        <v>194.034497858227</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
         <v>247.3580469011319</v>
@@ -6713,37 +6713,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T32" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U32" t="n">
-        <v>1311.402045381201</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="V32" t="n">
-        <v>1311.402045381201</v>
+        <v>1145.293579355068</v>
       </c>
       <c r="W32" t="n">
-        <v>1311.402045381201</v>
+        <v>792.5249240849539</v>
       </c>
       <c r="X32" t="n">
-        <v>1311.402045381201</v>
+        <v>419.059165823874</v>
       </c>
       <c r="Y32" t="n">
-        <v>921.2627134053891</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>321.5470195745884</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="C33" t="n">
-        <v>147.0939902934614</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="D33" t="n">
-        <v>147.0939902934614</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975218</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975218</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>330.1910807414154</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M33" t="n">
-        <v>729.6092173456784</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N33" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O33" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
         <v>1622.966287987609</v>
@@ -6807,22 +6807,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.966287987609</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U33" t="n">
-        <v>1394.763620525087</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V33" t="n">
-        <v>1159.611512293345</v>
+        <v>958.7085033988383</v>
       </c>
       <c r="W33" t="n">
-        <v>905.3741555651432</v>
+        <v>704.4711466706367</v>
       </c>
       <c r="X33" t="n">
-        <v>697.5226553596103</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="Y33" t="n">
-        <v>489.7623565946564</v>
+        <v>496.6196464651039</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C34" t="n">
-        <v>1454.030105059702</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D34" t="n">
-        <v>1303.913465647367</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>918.437642382959</v>
+        <v>580.3810541751592</v>
       </c>
       <c r="C35" t="n">
-        <v>918.437642382959</v>
+        <v>580.3810541751592</v>
       </c>
       <c r="D35" t="n">
-        <v>918.437642382959</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E35" t="n">
-        <v>918.437642382959</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F35" t="n">
-        <v>918.437642382959</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G35" t="n">
-        <v>558.9237552812579</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H35" t="n">
         <v>222.1153555684087</v>
@@ -6935,22 +6935,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K35" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P35" t="n">
         <v>1569.862809315274</v>
@@ -6959,28 +6959,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1357.120226215093</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1357.120226215093</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.966287987609</v>
+        <v>1357.120226215093</v>
       </c>
       <c r="V35" t="n">
-        <v>1291.903400644039</v>
+        <v>1357.120226215093</v>
       </c>
       <c r="W35" t="n">
-        <v>1291.903400644039</v>
+        <v>1357.120226215093</v>
       </c>
       <c r="X35" t="n">
-        <v>918.437642382959</v>
+        <v>1357.120226215093</v>
       </c>
       <c r="Y35" t="n">
-        <v>918.437642382959</v>
+        <v>966.980894239281</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>989.6600854869342</v>
+        <v>891.6264686557836</v>
       </c>
       <c r="C36" t="n">
-        <v>815.2070562058072</v>
+        <v>717.1734393746566</v>
       </c>
       <c r="D36" t="n">
-        <v>666.272646544556</v>
+        <v>568.2390297134053</v>
       </c>
       <c r="E36" t="n">
-        <v>507.0351915391004</v>
+        <v>409.0015747079498</v>
       </c>
       <c r="F36" t="n">
-        <v>360.5006335659854</v>
+        <v>262.4670167348348</v>
       </c>
       <c r="G36" t="n">
-        <v>222.0882603251556</v>
+        <v>124.0546434940051</v>
       </c>
       <c r="H36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K36" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L36" t="n">
-        <v>505.9483651585071</v>
+        <v>256.6067387278474</v>
       </c>
       <c r="M36" t="n">
-        <v>905.3665017627701</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.050658039703</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O36" t="n">
-        <v>1307.050658039703</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U36" t="n">
-        <v>1622.966287987609</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V36" t="n">
-        <v>1622.966287987609</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="W36" t="n">
-        <v>1573.487221477489</v>
+        <v>891.6264686557836</v>
       </c>
       <c r="X36" t="n">
-        <v>1365.635721271956</v>
+        <v>891.6264686557836</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.875422507002</v>
+        <v>891.6264686557836</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>361.2466016029501</v>
+        <v>74.9434706370939</v>
       </c>
       <c r="C37" t="n">
-        <v>192.3104186750432</v>
+        <v>74.9434706370939</v>
       </c>
       <c r="D37" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E37" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F37" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J37" t="n">
         <v>32.45932575975219</v>
@@ -7114,31 +7114,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q37" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R37" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>74.9434706370939</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>74.9434706370939</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>74.9434706370939</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>74.9434706370939</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>74.9434706370939</v>
       </c>
       <c r="X37" t="n">
-        <v>361.2466016029501</v>
+        <v>74.9434706370939</v>
       </c>
       <c r="Y37" t="n">
-        <v>361.2466016029501</v>
+        <v>74.9434706370939</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>534.6628733412679</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="C38" t="n">
-        <v>534.6628733412679</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D38" t="n">
-        <v>176.3971747345174</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E38" t="n">
-        <v>176.3971747345174</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975219</v>
@@ -7196,28 +7196,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V38" t="n">
-        <v>1311.402045381201</v>
+        <v>1338.489101075414</v>
       </c>
       <c r="W38" t="n">
-        <v>1311.402045381201</v>
+        <v>985.7204458053002</v>
       </c>
       <c r="X38" t="n">
-        <v>1311.402045381201</v>
+        <v>612.2546875442204</v>
       </c>
       <c r="Y38" t="n">
-        <v>921.2627134053896</v>
+        <v>222.1153555684087</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>32.45932575975219</v>
+        <v>396.5412896062826</v>
       </c>
       <c r="C39" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497703</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N39" t="n">
-        <v>1160.042269026704</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O39" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1576.9763369957</v>
       </c>
       <c r="S39" t="n">
-        <v>1534.78160306728</v>
+        <v>1409.474101953866</v>
       </c>
       <c r="T39" t="n">
-        <v>1333.878594172773</v>
+        <v>1208.571093059359</v>
       </c>
       <c r="U39" t="n">
-        <v>1105.675926710251</v>
+        <v>980.3684255968374</v>
       </c>
       <c r="V39" t="n">
-        <v>870.5238184785085</v>
+        <v>980.3684255968374</v>
       </c>
       <c r="W39" t="n">
-        <v>616.2864617503069</v>
+        <v>980.3684255968374</v>
       </c>
       <c r="X39" t="n">
-        <v>408.4349615447741</v>
+        <v>772.5169253913045</v>
       </c>
       <c r="Y39" t="n">
-        <v>200.6746627798202</v>
+        <v>564.7566266263507</v>
       </c>
     </row>
     <row r="40">
@@ -7321,10 +7321,10 @@
         <v>71.82943156598952</v>
       </c>
       <c r="G40" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H40" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I40" t="n">
         <v>32.45932575975219</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>442.299297473795</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="C41" t="n">
-        <v>442.299297473795</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="D41" t="n">
-        <v>442.299297473795</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="E41" t="n">
-        <v>442.299297473795</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="G41" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="H41" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975219</v>
@@ -7412,10 +7412,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
         <v>838.8947028941457</v>
@@ -7433,28 +7433,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1558.673042980801</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S41" t="n">
-        <v>1558.673042980801</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T41" t="n">
-        <v>1558.673042980801</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U41" t="n">
-        <v>1558.673042980801</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V41" t="n">
-        <v>1558.673042980801</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W41" t="n">
-        <v>1205.904387710686</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="X41" t="n">
-        <v>832.4386294496067</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="Y41" t="n">
-        <v>442.299297473795</v>
+        <v>150.9897000805384</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.0842197075859</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="C42" t="n">
-        <v>340.6311904264589</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="D42" t="n">
-        <v>191.6967807652077</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975219</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975219</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="G42" t="n">
         <v>32.45932575975219</v>
@@ -7488,52 +7488,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K42" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L42" t="n">
-        <v>505.9483651585071</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M42" t="n">
-        <v>905.3665017627701</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U42" t="n">
-        <v>1254.561044051268</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V42" t="n">
-        <v>1254.561044051268</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W42" t="n">
-        <v>1098.911355698141</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X42" t="n">
-        <v>891.0598554926078</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.2995567276539</v>
+        <v>39.95955255904721</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.2570507049328</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C43" t="n">
-        <v>133.2570507049328</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D43" t="n">
-        <v>133.2570507049328</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K43" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L43" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M43" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N43" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O43" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X43" t="n">
-        <v>133.2570507049328</v>
+        <v>1514.971591287941</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.2570507049328</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.7250243665027</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="C44" t="n">
-        <v>390.7250243665027</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="D44" t="n">
-        <v>32.45932575975219</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="E44" t="n">
-        <v>32.45932575975219</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F44" t="n">
-        <v>32.45932575975219</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G44" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H44" t="n">
         <v>32.45932575975219</v>
@@ -7649,13 +7649,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011316</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7673,25 +7673,25 @@
         <v>1508.970645214178</v>
       </c>
       <c r="S44" t="n">
-        <v>1508.970645214178</v>
+        <v>1505.342110717838</v>
       </c>
       <c r="T44" t="n">
-        <v>1286.226725594945</v>
+        <v>1505.342110717838</v>
       </c>
       <c r="U44" t="n">
-        <v>1032.3898425272</v>
+        <v>1505.342110717838</v>
       </c>
       <c r="V44" t="n">
-        <v>764.1907826275826</v>
+        <v>1505.342110717838</v>
       </c>
       <c r="W44" t="n">
-        <v>764.1907826275826</v>
+        <v>1152.573455447724</v>
       </c>
       <c r="X44" t="n">
-        <v>390.7250243665027</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="Y44" t="n">
-        <v>390.7250243665027</v>
+        <v>779.1076971866441</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>549.7496870371103</v>
+        <v>286.2477316137459</v>
       </c>
       <c r="C45" t="n">
-        <v>375.2966577559833</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D45" t="n">
-        <v>226.3622480947321</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E45" t="n">
-        <v>67.12479308927658</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F45" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G45" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H45" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K45" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L45" t="n">
-        <v>236.9655055809358</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>546.7891136313473</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P45" t="n">
         <v>1513.730526286846</v>
@@ -7749,28 +7749,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1622.966287987609</v>
+        <v>1587.667000026767</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.966287987609</v>
+        <v>1587.667000026767</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.966287987609</v>
+        <v>1587.667000026767</v>
       </c>
       <c r="U45" t="n">
-        <v>1622.966287987609</v>
+        <v>1359.464332564245</v>
       </c>
       <c r="V45" t="n">
-        <v>1387.814179755867</v>
+        <v>1124.312224332502</v>
       </c>
       <c r="W45" t="n">
-        <v>1133.576823027665</v>
+        <v>870.0748676043007</v>
       </c>
       <c r="X45" t="n">
-        <v>925.7253228221323</v>
+        <v>662.2233673987679</v>
       </c>
       <c r="Y45" t="n">
-        <v>717.9650240571784</v>
+        <v>454.463068633814</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C46" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D46" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E46" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F46" t="n">
-        <v>129.490276430019</v>
+        <v>214.3566541050398</v>
       </c>
       <c r="G46" t="n">
-        <v>129.490276430019</v>
+        <v>44.93577577452422</v>
       </c>
       <c r="H46" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I46" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J46" t="n">
         <v>32.45932575975219</v>
@@ -7825,31 +7825,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q46" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R46" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V46" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X46" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y46" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8301,13 +8301,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8541,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>89.94082829865968</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>213.8448350321618</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275543</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878806</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
-        <v>142.0020905588916</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,7 +9246,7 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
-        <v>296.5127271079359</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q18" t="n">
         <v>99.73813450275541</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079358</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>241.3813618149014</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
         <v>86.93262649026374</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>362.3381572675154</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>270.4206501018624</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>380.7598033349562</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10194,13 +10194,13 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878806</v>
       </c>
       <c r="M30" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,13 +10428,13 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>213.8448350321618</v>
       </c>
       <c r="N33" t="n">
         <v>455.0874215304797</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>244.1351504444136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>99.73813450275541</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>267.4734388209744</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10677,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
-        <v>67.58604940343854</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>282.5396565622962</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
         <v>86.93262649026374</v>
@@ -10914,13 +10914,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>209.1955478481121</v>
       </c>
       <c r="P39" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119838</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>92.88803957954757</v>
+        <v>174.1879045256798</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711644</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
-        <v>70.10119885733471</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>375.2055399582307</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>455.0874215304797</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.7959972113198</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23261,22 +23261,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>289.5309751641336</v>
       </c>
       <c r="G11" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>88.95287631055913</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,22 +23303,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,10 +23337,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>110.5857928258603</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
@@ -23397,7 +23397,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>202.7107073159006</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23431,13 +23431,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>56.55224943852487</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,13 +23458,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082892</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23501,7 +23501,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>264.5852994946835</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>252.3860301008907</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23592,7 +23592,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>137.0808818569887</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>204.7522690070376</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23671,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>126.1137933559315</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
         <v>187.7594695105699</v>
@@ -23777,25 +23777,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.10762352190613</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>56.79311626624462</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23862,7 +23862,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>195.8317009179847</v>
       </c>
       <c r="U18" t="n">
         <v>225.9206407878966</v>
@@ -23871,10 +23871,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>202.7107073159004</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>48.82572532248356</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23941,19 +23941,19 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>153.4545059283733</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>361.3313587010372</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,16 +23978,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.134473744809043</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
-        <v>8.971932133631526</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
@@ -24029,7 +24029,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>284.7672786453838</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,19 +24045,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>44.25227630748157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24066,7 +24066,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24105,16 +24105,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>158.9160338499061</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24139,16 +24139,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>159.8772180037952</v>
+        <v>76.77696092765451</v>
       </c>
       <c r="I22" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>35.47768583434429</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
         <v>165.4090611368575</v>
@@ -24181,7 +24181,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24209,7 +24209,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>195.4957909443472</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24254,25 +24254,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>278.614848880845</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24285,25 +24285,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>159.1079591185646</v>
+        <v>130.2018754590731</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,16 +24342,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24367,10 +24367,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>117.0519906380964</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>74.67247646141476</v>
@@ -24409,13 +24409,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
-        <v>66.72592374140285</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
         <v>286.3046124576955</v>
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>259.2592212392672</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24497,19 +24497,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>109.6588881535608</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24528,10 +24528,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.0282495084215</v>
@@ -24570,16 +24570,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>124.628453673658</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>179.0259600696503</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>213.161238575653</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>186.7332506408622</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.545463123968773</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>1.134473744809156</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G29" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24725,13 +24725,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>108.1114934291957</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -24756,28 +24756,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24804,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>99.01587095745558</v>
       </c>
       <c r="U30" t="n">
-        <v>140.838578706537</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>21.57939819579937</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24889,10 +24889,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>187.6214750622408</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>221.9709496947717</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>106.1547911609872</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24993,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>44.15676256702886</v>
+        <v>58.76584766604614</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,7 +25047,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25075,13 +25075,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>136.7968536786433</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25129,10 +25129,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,10 +25166,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>58.7947558998498</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25199,10 +25199,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>45.26099902555248</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
@@ -25211,16 +25211,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25248,10 +25248,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>18.51125785570102</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>202.7107073159004</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25312,10 +25312,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>106.5561695896441</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,10 +25330,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
-        <v>63.92185253335741</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>226.8162656893113</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>264.3775752566939</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
@@ -25409,7 +25409,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,10 +25436,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
         <v>220.5164804230398</v>
@@ -25448,13 +25448,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>46.11984342706182</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25470,7 +25470,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25485,10 +25485,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>35.05353301628523</v>
       </c>
       <c r="S39" t="n">
-        <v>78.52437462028925</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25527,10 +25527,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>128.7502647990354</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>108.5255533099058</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
         <v>74.67247646141475</v>
@@ -25637,7 +25637,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.7135041305339</v>
@@ -25646,7 +25646,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>70.41439893299157</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>49.20537378895676</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25704,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>129.6030249771194</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25761,13 +25761,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>97.601791691323</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>46.64421495084038</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>118.794905656366</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25868,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,10 +25877,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>187.7594695105699</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>192.0006646832703</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>62.23518916951417</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -25947,13 +25947,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>110.7503997371547</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.0282495084215</v>
@@ -25962,7 +25962,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>45.63728941704139</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
@@ -25998,7 +25998,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26032,19 +26032,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>159.8772180037952</v>
+        <v>147.5255324891709</v>
       </c>
       <c r="I46" t="n">
-        <v>126.1137933559314</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,10 +26065,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
         <v>219.4103988718534</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>514841.3714520532</v>
+        <v>514841.3714520531</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>514841.3714520528</v>
+        <v>514841.371452053</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>514841.371452053</v>
+        <v>514841.3714520532</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>514841.371452053</v>
+        <v>514841.3714520532</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>514841.3714520529</v>
+        <v>514841.3714520527</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>514841.3714520529</v>
+        <v>514841.3714520532</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>514841.3714520532</v>
+        <v>514841.3714520529</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>514841.3714520528</v>
+        <v>514841.3714520529</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>514841.371452053</v>
+        <v>514841.3714520528</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>514841.3714520531</v>
+        <v>514841.3714520533</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="F2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="G2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="H2" t="n">
         <v>267036.121330758</v>
       </c>
       <c r="I2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="J2" t="n">
-        <v>267036.1213307578</v>
+        <v>267036.1213307579</v>
       </c>
       <c r="K2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="L2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="M2" t="n">
         <v>267036.121330758</v>
       </c>
       <c r="N2" t="n">
+        <v>267036.1213307581</v>
+      </c>
+      <c r="O2" t="n">
         <v>267036.121330758</v>
       </c>
-      <c r="O2" t="n">
-        <v>267036.1213307581</v>
-      </c>
       <c r="P2" t="n">
-        <v>267036.1213307582</v>
+        <v>267036.121330758</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244792</v>
+        <v>41050.6978624479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>314967.8580094805</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="C4" t="n">
-        <v>314967.8580094805</v>
+        <v>312595.3744187172</v>
       </c>
       <c r="D4" t="n">
-        <v>314967.8580094805</v>
+        <v>312595.3744187172</v>
       </c>
       <c r="E4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="F4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="G4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="H4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="I4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="J4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="K4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="L4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="M4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="N4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="O4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="P4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="H5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="J5" t="n">
         <v>27864.35291375757</v>
       </c>
-      <c r="H5" t="n">
-        <v>27864.35291375758</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>27864.35291375757</v>
       </c>
-      <c r="J5" t="n">
-        <v>27864.35291375756</v>
-      </c>
-      <c r="K5" t="n">
-        <v>27864.35291375756</v>
-      </c>
       <c r="L5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="M5" t="n">
         <v>27864.35291375757</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69132.54786038707</v>
+        <v>71505.03145115037</v>
       </c>
       <c r="C6" t="n">
-        <v>149901.9793919348</v>
+        <v>152274.4629826982</v>
       </c>
       <c r="D6" t="n">
-        <v>149901.9793919346</v>
+        <v>152274.4629826981</v>
       </c>
       <c r="E6" t="n">
-        <v>35326.75664105337</v>
+        <v>37749.28653201705</v>
       </c>
       <c r="F6" t="n">
-        <v>202266.9267663001</v>
+        <v>204689.4566572638</v>
       </c>
       <c r="G6" t="n">
-        <v>202266.9267663001</v>
+        <v>204689.4566572637</v>
       </c>
       <c r="H6" t="n">
-        <v>202266.9267663</v>
+        <v>204689.4566572638</v>
       </c>
       <c r="I6" t="n">
-        <v>202266.9267663001</v>
+        <v>204689.4566572637</v>
       </c>
       <c r="J6" t="n">
-        <v>139206.9841671936</v>
+        <v>141629.5140581575</v>
       </c>
       <c r="K6" t="n">
-        <v>202266.9267663001</v>
+        <v>204689.4566572638</v>
       </c>
       <c r="L6" t="n">
-        <v>202266.9267663001</v>
+        <v>204689.4566572638</v>
       </c>
       <c r="M6" t="n">
-        <v>161216.2289038521</v>
+        <v>163638.7587948159</v>
       </c>
       <c r="N6" t="n">
-        <v>202266.9267662999</v>
+        <v>204689.4566572639</v>
       </c>
       <c r="O6" t="n">
-        <v>202266.9267663001</v>
+        <v>204689.4566572638</v>
       </c>
       <c r="P6" t="n">
-        <v>202266.9267663002</v>
+        <v>204689.4566572637</v>
       </c>
     </row>
   </sheetData>
@@ -26753,7 +26753,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="I3" t="n">
         <v>146.571804419537</v>
@@ -26799,16 +26799,16 @@
         <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G4" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="I4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969023</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192434</v>
+        <v>164.7272831192433</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>168.7260910236542</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>186.5164278032447</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>143.3631990801925</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>77.12258946307213</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>178.1229943321122</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>189.8484676766033</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>307.4900961561543</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27710,10 +27710,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>42.40986218809812</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>53.9216280989003</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>168.2902436427005</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27895,31 +27895,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>256.4615648878451</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,25 +27929,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>49.10816624057912</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>177.0166001022856</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>40.41943799383367</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31932,7 +31932,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31941,16 +31941,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L14" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32169,7 +32169,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32178,16 +32178,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438474</v>
@@ -32485,16 +32485,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
@@ -32503,7 +32503,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,40 +32622,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M22" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
@@ -34784,13 +34784,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,16 +35261,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35428,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223148</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
-        <v>19.83962944132495</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366292</v>
+        <v>151.5924345187911</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35665,7 +35665,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054592</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
-        <v>74.41604115545309</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P16" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>226.4115282506012</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366293</v>
@@ -35978,7 +35978,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726433</v>
@@ -36139,7 +36139,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506011</v>
       </c>
       <c r="M21" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>192.035512281324</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
         <v>66.88568574354744</v>
@@ -36291,10 +36291,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>300.0857567541447</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969024</v>
+        <v>221.074800568285</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36455,7 +36455,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
@@ -36683,7 +36683,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>331.4139538013789</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054592</v>
       </c>
       <c r="M30" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
         <v>405.7415719969023</v>
@@ -36929,7 +36929,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
-        <v>403.4526632366293</v>
+        <v>151.5924345187912</v>
       </c>
       <c r="N33" t="n">
         <v>405.7415719969023</v>
@@ -37163,7 +37163,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>300.7391464461244</v>
+        <v>197.3722399636397</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366293</v>
@@ -37397,13 +37397,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>208.7675436839829</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37634,13 +37634,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
-        <v>326.276269873291</v>
+        <v>141.6094984446736</v>
       </c>
       <c r="P39" t="n">
-        <v>141.323749279139</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N41" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132383</v>
       </c>
       <c r="O41" t="n">
         <v>249.9811662707763</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K42" t="n">
         <v>177.5326105223149</v>
@@ -37868,7 +37868,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>43.5421900459702</v>
+        <v>124.8420549921024</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -37877,7 +37877,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>38.06115762167969</v>
       </c>
       <c r="K44" t="n">
-        <v>179.0082576726429</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L44" t="n">
         <v>274.8802469209098</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>312.9531394448601</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969023</v>
@@ -38111,7 +38111,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.690655761624</v>
+        <v>60.02388433300664</v>
       </c>
       <c r="Q45" t="n">
         <v>110.3391532330937</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1337698.917833604</v>
+        <v>1281921.395690999</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111176</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7229696.437241077</v>
+        <v>7229696.437241076</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>20.02544070929549</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,13 +755,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>99.53274325688676</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.17354161800005</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>48.83589518354175</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>61.68827609322837</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>82.71243518046262</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>175.0426595591497</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>48.83589518354175</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>9.851517914738411</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>47.74806282379132</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>312.9379844122245</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,19 +1454,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>127.5262986521572</v>
+        <v>113.4883178883721</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356413</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>118.6954547790018</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>234.3536430594475</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114.6949900224059</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>162.088610620741</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827553</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>96.060641163564</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>157.7727335375555</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>134.6496738637375</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>96.30626612731572</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>7.425224531301852</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
@@ -1982,16 +1982,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>174.8882705609666</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>73.36175976093791</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>37.5075303534602</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>112.4543217212322</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>48.98427584501901</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>95.02258546632275</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>99.78974769572874</v>
       </c>
     </row>
     <row r="23">
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>189.1213404451501</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>141.6396260835076</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2399,16 +2399,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>120.369604185272</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>154.7058160821933</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2490,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>10.27077547947459</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>127.450411427231</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>144.437538100189</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2648,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>127.3343733834984</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>109.4795315340422</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>157.0514429154012</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>52.01410679642208</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,16 +2879,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>155.578398403622</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>192.8096891754702</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>17.00671206275828</v>
       </c>
       <c r="S31" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>203.1295377494268</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>228.6655858138618</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>7.42522453130207</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>43.50816460513231</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>119.1670518404212</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>218.0933703165741</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3347,22 +3347,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>40.46506183810504</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
         <v>165.8272126914158</v>
@@ -3401,19 +3401,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>147.3962661676069</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.637108967925709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>125.5822957186516</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>60.8444672980886</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>55.02983932544055</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>169.1109105666429</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>98.6831373954543</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>158.2525819861381</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>189.1213404451501</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>218.0933703165743</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>56.54541135909354</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>117.4428572370538</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>106.914749732671</v>
+        <v>157.7727335375555</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>71.61261845677504</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>150.9996278957082</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>80.61412076716718</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4121,10 +4121,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>25.46556451502991</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>38.97640474817491</v>
+        <v>33.64439241526551</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X2" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>453.4809361619635</v>
+        <v>842.6599081753446</v>
       </c>
       <c r="C3" t="n">
-        <v>453.4809361619635</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D3" t="n">
-        <v>304.5465265007123</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>304.5465265007123</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>661.3324363674964</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>661.3324363674964</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>661.3324363674964</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>453.4809361619635</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>453.4809361619635</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4600,19 +4600,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.34666575615842</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="C6" t="n">
-        <v>82.34666575615842</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="D6" t="n">
-        <v>82.34666575615842</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E6" t="n">
-        <v>82.34666575615842</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F6" t="n">
-        <v>82.34666575615842</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G6" t="n">
-        <v>82.34666575615842</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>82.34666575615842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,43 +4655,43 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="V6" t="n">
-        <v>533.6469426057913</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="W6" t="n">
-        <v>290.1981659616912</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="X6" t="n">
-        <v>82.34666575615842</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="Y6" t="n">
-        <v>82.34666575615842</v>
+        <v>577.1531170985884</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4749,28 +4749,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.6192102101089</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>223.6192102101089</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>223.6192102101089</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>308.7395386897029</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>293.2822280683544</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>467.067986854209</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>223.6192102101089</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.6192102101089</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>269.5723599112974</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C9" t="n">
-        <v>269.5723599112974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>269.5723599112974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>477.3326586762514</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>477.3326586762514</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>477.3326586762514</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X9" t="n">
-        <v>477.3326586762514</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y9" t="n">
-        <v>269.5723599112974</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4995,19 +4995,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1622.966287987609</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="C11" t="n">
-        <v>1622.966287987609</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="D11" t="n">
-        <v>1574.735921498931</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="E11" t="n">
-        <v>1188.947668900687</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="F11" t="n">
-        <v>779.107697186644</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H11" t="n">
         <v>32.45932575975218</v>
@@ -5041,16 +5041,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K11" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5065,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U11" t="n">
-        <v>1622.966287987609</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="V11" t="n">
-        <v>1622.966287987609</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="W11" t="n">
-        <v>1622.966287987609</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="X11" t="n">
-        <v>1622.966287987609</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="Y11" t="n">
-        <v>1622.966287987609</v>
+        <v>348.5582999135143</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>910.3247089140674</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C12" t="n">
-        <v>735.8716796329404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D12" t="n">
-        <v>586.9372699716891</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E12" t="n">
-        <v>427.6998149662337</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F12" t="n">
-        <v>281.1652569931186</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G12" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H12" t="n">
         <v>32.45932575975218</v>
@@ -5120,22 +5120,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>32.45932575975218</v>
+        <v>91.88297124942886</v>
       </c>
       <c r="L12" t="n">
-        <v>330.1910807414154</v>
+        <v>389.614726231092</v>
       </c>
       <c r="M12" t="n">
-        <v>729.6092173456784</v>
+        <v>789.032862835355</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082806</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O12" t="n">
-        <v>1271.486777082839</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P12" t="n">
         <v>1513.730526286846</v>
@@ -5150,22 +5150,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T12" t="n">
-        <v>1494.151844904622</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U12" t="n">
-        <v>1494.151844904622</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V12" t="n">
-        <v>1494.151844904622</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W12" t="n">
-        <v>1494.151844904622</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X12" t="n">
-        <v>1286.300344699089</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y12" t="n">
-        <v>1078.540045934135</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="13">
@@ -5220,22 +5220,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975218</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975218</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975218</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W13" t="n">
         <v>32.45932575975218</v>
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>968.7637269953007</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C14" t="n">
-        <v>968.7637269953007</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D14" t="n">
-        <v>968.7637269953007</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E14" t="n">
-        <v>968.7637269953007</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F14" t="n">
-        <v>968.7637269953007</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G14" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K14" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T14" t="n">
-        <v>1088.658125761969</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U14" t="n">
-        <v>968.7637269953007</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V14" t="n">
-        <v>968.7637269953007</v>
+        <v>1069.159481024806</v>
       </c>
       <c r="W14" t="n">
-        <v>968.7637269953007</v>
+        <v>1069.159481024806</v>
       </c>
       <c r="X14" t="n">
-        <v>968.7637269953007</v>
+        <v>832.4386294496067</v>
       </c>
       <c r="Y14" t="n">
-        <v>968.7637269953007</v>
+        <v>442.2992974737949</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.6600854869342</v>
+        <v>501.9572080522025</v>
       </c>
       <c r="C15" t="n">
-        <v>815.2070562058072</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313477</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082811</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O15" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286847</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
@@ -5384,25 +5384,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1340.665718993834</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1340.665718993834</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V15" t="n">
-        <v>1105.513610762092</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W15" t="n">
-        <v>1105.513610762092</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="X15" t="n">
-        <v>1105.513610762092</v>
+        <v>501.9572080522025</v>
       </c>
       <c r="Y15" t="n">
-        <v>1105.513610762092</v>
+        <v>501.9572080522025</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
         <v>40.81344334191284</v>
@@ -5445,43 +5445,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M16" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N16" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O16" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642184</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1188.947668900687</v>
+        <v>716.3908257546921</v>
       </c>
       <c r="C17" t="n">
-        <v>1188.947668900687</v>
+        <v>716.3908257546921</v>
       </c>
       <c r="D17" t="n">
-        <v>1188.947668900687</v>
+        <v>358.1251271479416</v>
       </c>
       <c r="E17" t="n">
-        <v>1188.947668900687</v>
+        <v>358.1251271479416</v>
       </c>
       <c r="F17" t="n">
-        <v>779.107697186644</v>
+        <v>358.1251271479416</v>
       </c>
       <c r="G17" t="n">
-        <v>369.2677254726013</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5521,10 +5521,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5539,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1411.691588519919</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1188.947668900687</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U17" t="n">
-        <v>1188.947668900687</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V17" t="n">
-        <v>1188.947668900687</v>
+        <v>1069.159481024806</v>
       </c>
       <c r="W17" t="n">
-        <v>1188.947668900687</v>
+        <v>716.3908257546921</v>
       </c>
       <c r="X17" t="n">
-        <v>1188.947668900687</v>
+        <v>716.3908257546921</v>
       </c>
       <c r="Y17" t="n">
-        <v>1188.947668900687</v>
+        <v>716.3908257546921</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39.95955255904698</v>
+        <v>681.4882208202274</v>
       </c>
       <c r="C18" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="D18" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="E18" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975218</v>
@@ -5600,46 +5600,46 @@
         <v>32.45932575975218</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M18" t="n">
-        <v>729.6092173456783</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N18" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O18" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894781</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577354</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="W18" t="n">
-        <v>455.5713515295337</v>
+        <v>849.7035578402954</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240009</v>
+        <v>849.7035578402954</v>
       </c>
       <c r="Y18" t="n">
-        <v>39.95955255904698</v>
+        <v>849.7035578402954</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
         <v>32.45932575975218</v>
@@ -5709,16 +5709,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>106.5621133970632</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>645.7900024630774</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C20" t="n">
-        <v>607.9036081666529</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D20" t="n">
-        <v>607.9036081666529</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
         <v>70.13987180521505</v>
@@ -5758,10 +5758,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1286.226725594945</v>
+        <v>1509.376064026769</v>
       </c>
       <c r="U20" t="n">
-        <v>1032.389842527199</v>
+        <v>1509.376064026769</v>
       </c>
       <c r="V20" t="n">
-        <v>1032.389842527199</v>
+        <v>1178.313176683198</v>
       </c>
       <c r="W20" t="n">
-        <v>1032.389842527199</v>
+        <v>1178.313176683198</v>
       </c>
       <c r="X20" t="n">
-        <v>1032.389842527199</v>
+        <v>804.8474184221182</v>
       </c>
       <c r="Y20" t="n">
-        <v>1032.389842527199</v>
+        <v>804.8474184221182</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>989.6600854869342</v>
+        <v>661.618777680701</v>
       </c>
       <c r="C21" t="n">
-        <v>815.2070562058072</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D21" t="n">
-        <v>666.272646544556</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E21" t="n">
-        <v>507.0351915391004</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K21" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L21" t="n">
-        <v>505.948365158507</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M21" t="n">
-        <v>905.36650176277</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O21" t="n">
         <v>1380.722538783602</v>
@@ -5867,16 +5867,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V21" t="n">
-        <v>1622.966287987609</v>
+        <v>1387.814179755867</v>
       </c>
       <c r="W21" t="n">
-        <v>1573.487221477489</v>
+        <v>1133.576823027665</v>
       </c>
       <c r="X21" t="n">
-        <v>1365.635721271956</v>
+        <v>1037.594413465723</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.875422507002</v>
+        <v>829.8341147007691</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5934,28 +5934,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W22" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X22" t="n">
-        <v>194.1667418687505</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32.45932575975218</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="C23" t="n">
-        <v>32.45932575975218</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975218</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975218</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975218</v>
+        <v>822.9869842977546</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975218</v>
+        <v>413.1470125837118</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6022,19 +6022,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1479.895958610329</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V23" t="n">
-        <v>1148.833071266758</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W23" t="n">
-        <v>796.0644159966438</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X23" t="n">
-        <v>422.5986577355639</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y23" t="n">
-        <v>32.45932575975218</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>154.0447845327542</v>
+        <v>487.165748399574</v>
       </c>
       <c r="C24" t="n">
-        <v>32.45932575975218</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975218</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975218</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F24" t="n">
         <v>32.45932575975218</v>
@@ -6068,25 +6068,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L24" t="n">
-        <v>147.3709770270845</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M24" t="n">
-        <v>546.7891136313474</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N24" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O24" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
@@ -6098,22 +6098,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1455.464052945775</v>
+        <v>1299.19555185265</v>
       </c>
       <c r="U24" t="n">
-        <v>1227.261385483253</v>
+        <v>1070.992884390129</v>
       </c>
       <c r="V24" t="n">
-        <v>992.1092772515105</v>
+        <v>1070.992884390129</v>
       </c>
       <c r="W24" t="n">
-        <v>737.871920523309</v>
+        <v>1070.992884390129</v>
       </c>
       <c r="X24" t="n">
-        <v>530.0204203177761</v>
+        <v>863.1413841845958</v>
       </c>
       <c r="Y24" t="n">
-        <v>322.2601215528222</v>
+        <v>655.381085419642</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C25" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D25" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E25" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G25" t="n">
-        <v>1453.545409657094</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H25" t="n">
-        <v>1453.545409657094</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I25" t="n">
-        <v>1304.553532830749</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M25" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N25" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V25" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W25" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X25" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y25" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.1971150801875</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6250,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1311.402045381201</v>
+        <v>1477.069784856105</v>
       </c>
       <c r="V26" t="n">
-        <v>1311.402045381201</v>
+        <v>1146.006897512535</v>
       </c>
       <c r="W26" t="n">
-        <v>1311.402045381201</v>
+        <v>1146.006897512535</v>
       </c>
       <c r="X26" t="n">
-        <v>937.9362871201211</v>
+        <v>1146.006897512535</v>
       </c>
       <c r="Y26" t="n">
-        <v>547.7969551443093</v>
+        <v>755.8675655367231</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>790.2393568559519</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="C27" t="n">
-        <v>615.7863275748249</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="D27" t="n">
-        <v>466.8519179135736</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E27" t="n">
-        <v>307.6144629081181</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F27" t="n">
-        <v>161.0799049350031</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
         <v>61.20822116384403</v>
@@ -6311,46 +6311,46 @@
         <v>61.20822116384403</v>
       </c>
       <c r="L27" t="n">
-        <v>147.3709770270845</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M27" t="n">
-        <v>546.7891136313474</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082806</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1374.066492846507</v>
+        <v>1512.380902599688</v>
       </c>
       <c r="U27" t="n">
-        <v>1374.066492846507</v>
+        <v>1284.178235137166</v>
       </c>
       <c r="V27" t="n">
-        <v>1374.066492846507</v>
+        <v>1049.026126905424</v>
       </c>
       <c r="W27" t="n">
-        <v>1374.066492846507</v>
+        <v>794.788770177222</v>
       </c>
       <c r="X27" t="n">
-        <v>1166.214992640974</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="Y27" t="n">
-        <v>958.45469387602</v>
+        <v>586.9372699716891</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6408,28 +6408,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>361.2466016029501</v>
+        <v>254.0859912868768</v>
       </c>
       <c r="S28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W28" t="n">
-        <v>260.4488766577695</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1096.495941019763</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="C29" t="n">
-        <v>727.5334240793518</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="D29" t="n">
-        <v>369.2677254726013</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="E29" t="n">
-        <v>369.2677254726013</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="F29" t="n">
-        <v>369.2677254726013</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="G29" t="n">
-        <v>369.2677254726013</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J29" t="n">
         <v>70.13987180521505</v>
@@ -6487,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1350.332824087509</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T29" t="n">
-        <v>1350.332824087509</v>
+        <v>1372.858186340065</v>
       </c>
       <c r="U29" t="n">
-        <v>1096.495941019763</v>
+        <v>1372.858186340065</v>
       </c>
       <c r="V29" t="n">
-        <v>1096.495941019763</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="W29" t="n">
-        <v>1096.495941019763</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="X29" t="n">
-        <v>1096.495941019763</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="Y29" t="n">
-        <v>1096.495941019763</v>
+        <v>1041.795298996494</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>281.1652569931186</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="C30" t="n">
-        <v>281.1652569931186</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D30" t="n">
-        <v>281.1652569931186</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E30" t="n">
-        <v>281.1652569931186</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F30" t="n">
-        <v>281.1652569931186</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G30" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L30" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M30" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O30" t="n">
         <v>1380.722538783602</v>
@@ -6566,28 +6566,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1374.066492846507</v>
+        <v>1465.816390610213</v>
       </c>
       <c r="T30" t="n">
-        <v>1173.163483952</v>
+        <v>1264.913381715707</v>
       </c>
       <c r="U30" t="n">
-        <v>978.4062221585957</v>
+        <v>1264.913381715707</v>
       </c>
       <c r="V30" t="n">
-        <v>743.2541139268531</v>
+        <v>1029.761273483964</v>
       </c>
       <c r="W30" t="n">
-        <v>489.0167571986515</v>
+        <v>775.5239167557625</v>
       </c>
       <c r="X30" t="n">
-        <v>281.1652569931186</v>
+        <v>567.6724165502296</v>
       </c>
       <c r="Y30" t="n">
-        <v>281.1652569931186</v>
+        <v>359.9121177852757</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>344.0681045698609</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>344.0681045698609</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L31" t="n">
         <v>107.0302722280248</v>
@@ -6645,28 +6645,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>344.0681045698609</v>
       </c>
       <c r="S31" t="n">
-        <v>261.5666648398646</v>
+        <v>344.0681045698609</v>
       </c>
       <c r="T31" t="n">
-        <v>32.45932575975218</v>
+        <v>344.0681045698609</v>
       </c>
       <c r="U31" t="n">
-        <v>32.45932575975218</v>
+        <v>344.0681045698609</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975218</v>
+        <v>344.0681045698609</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975218</v>
+        <v>344.0681045698609</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975218</v>
+        <v>344.0681045698609</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>344.0681045698609</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1122.370805150056</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.370805150056</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="D32" t="n">
-        <v>764.1051065433051</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="E32" t="n">
-        <v>764.1051065433051</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F32" t="n">
-        <v>764.1051065433051</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G32" t="n">
-        <v>558.9237552812577</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J32" t="n">
         <v>70.13987180521505</v>
@@ -6724,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1508.970645214177</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U32" t="n">
-        <v>1508.970645214177</v>
+        <v>1169.247029162456</v>
       </c>
       <c r="V32" t="n">
-        <v>1508.970645214177</v>
+        <v>1169.247029162456</v>
       </c>
       <c r="W32" t="n">
-        <v>1508.970645214177</v>
+        <v>1169.247029162456</v>
       </c>
       <c r="X32" t="n">
-        <v>1508.970645214177</v>
+        <v>1169.247029162456</v>
       </c>
       <c r="Y32" t="n">
-        <v>1508.970645214177</v>
+        <v>779.1076971866441</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>740.9541542535677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C33" t="n">
-        <v>566.5011249724407</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D33" t="n">
-        <v>417.5667153111894</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E33" t="n">
-        <v>258.3292603057339</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L33" t="n">
         <v>330.1910807414154</v>
@@ -6791,10 +6791,10 @@
         <v>729.6092173456783</v>
       </c>
       <c r="N33" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O33" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
         <v>1622.966287987609</v>
@@ -6803,28 +6803,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U33" t="n">
-        <v>1622.966287987609</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V33" t="n">
-        <v>1579.018646972324</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W33" t="n">
-        <v>1324.781290244122</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X33" t="n">
-        <v>1116.92979003859</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y33" t="n">
-        <v>909.1694912736357</v>
+        <v>39.95955255904721</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144411</v>
+        <v>140.45402245942</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144411</v>
+        <v>140.45402245942</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144411</v>
+        <v>140.45402245942</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144411</v>
+        <v>140.45402245942</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144411</v>
+        <v>140.45402245942</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144411</v>
+        <v>140.45402245942</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W34" t="n">
-        <v>1333.549117950648</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144411</v>
+        <v>140.45402245942</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.45932575975218</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C35" t="n">
-        <v>32.45932575975218</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D35" t="n">
         <v>32.45932575975218</v>
@@ -6943,10 +6943,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6967,22 +6967,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1502.59552855284</v>
       </c>
       <c r="U35" t="n">
-        <v>1369.129404919863</v>
+        <v>1502.59552855284</v>
       </c>
       <c r="V35" t="n">
-        <v>1148.833071266758</v>
+        <v>1502.59552855284</v>
       </c>
       <c r="W35" t="n">
-        <v>796.0644159966438</v>
+        <v>1149.826873282726</v>
       </c>
       <c r="X35" t="n">
-        <v>422.5986577355639</v>
+        <v>1149.826873282726</v>
       </c>
       <c r="Y35" t="n">
-        <v>32.45932575975218</v>
+        <v>759.6875413069145</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.45932575975218</v>
+        <v>776.7454794694102</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975218</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975218</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975218</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H36" t="n">
         <v>32.45932575975218</v>
@@ -7019,13 +7019,13 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N36" t="n">
         <v>1057.709031609043</v>
@@ -7040,28 +7040,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U36" t="n">
-        <v>1105.675926710251</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V36" t="n">
-        <v>870.5238184785085</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="W36" t="n">
-        <v>616.2864617503069</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="X36" t="n">
-        <v>408.4349615447741</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="Y36" t="n">
-        <v>200.6746627798202</v>
+        <v>944.9608164894781</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>351.5121480999948</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
-        <v>182.5759651720879</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
         <v>32.45932575975218</v>
@@ -7125,22 +7125,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y37" t="n">
-        <v>351.5121480999948</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>442.2992974737949</v>
+        <v>978.9900729440515</v>
       </c>
       <c r="C38" t="n">
-        <v>442.2992974737949</v>
+        <v>978.9900729440515</v>
       </c>
       <c r="D38" t="n">
-        <v>442.2992974737949</v>
+        <v>978.9900729440515</v>
       </c>
       <c r="E38" t="n">
-        <v>442.2992974737949</v>
+        <v>978.9900729440515</v>
       </c>
       <c r="F38" t="n">
-        <v>442.2992974737949</v>
+        <v>569.1501012300087</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975218</v>
+        <v>159.3101295159659</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975218</v>
@@ -7174,16 +7174,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>834.8212426942227</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V38" t="n">
-        <v>503.7583553506521</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W38" t="n">
-        <v>442.2992974737949</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="X38" t="n">
-        <v>442.2992974737949</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="Y38" t="n">
-        <v>442.2992974737949</v>
+        <v>978.9900729440515</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>527.8602733037262</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C39" t="n">
-        <v>527.8602733037262</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D39" t="n">
-        <v>527.8602733037262</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E39" t="n">
-        <v>368.6228182982707</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F39" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975218</v>
@@ -7259,19 +7259,19 @@
         <v>236.9655055809357</v>
       </c>
       <c r="L39" t="n">
-        <v>236.9655055809357</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M39" t="n">
-        <v>636.3836421851986</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082806</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
@@ -7292,13 +7292,13 @@
         <v>791.2062683570039</v>
       </c>
       <c r="W39" t="n">
-        <v>791.2062683570039</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X39" t="n">
-        <v>791.2062683570039</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="Y39" t="n">
-        <v>583.44596959205</v>
+        <v>366.1498100463347</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1294.179012144411</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="C40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K40" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L40" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N40" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>1523.286351224524</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V40" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W40" t="n">
-        <v>1294.179012144411</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="X40" t="n">
-        <v>1294.179012144411</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="Y40" t="n">
-        <v>1294.179012144411</v>
+        <v>201.3955086876591</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>252.7556594128575</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="C41" t="n">
-        <v>252.7556594128575</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="D41" t="n">
-        <v>252.7556594128575</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="E41" t="n">
-        <v>252.7556594128575</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="F41" t="n">
-        <v>252.7556594128575</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="G41" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H41" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7444,19 +7444,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1369.129404919863</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V41" t="n">
-        <v>1369.129404919863</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>1016.360749649749</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X41" t="n">
-        <v>642.8949913886693</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y41" t="n">
-        <v>252.7556594128575</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>818.5068763832137</v>
+        <v>666.272646544556</v>
       </c>
       <c r="C42" t="n">
-        <v>644.0538471020867</v>
+        <v>666.272646544556</v>
       </c>
       <c r="D42" t="n">
-        <v>644.0538471020867</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E42" t="n">
-        <v>484.8163920966312</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>338.2818341235162</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
-        <v>199.8694608826864</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
-        <v>89.57590289014971</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>147.3709770270845</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313474</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N42" t="n">
         <v>948.4732699082806</v>
@@ -7517,25 +7517,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1504.337139263312</v>
       </c>
       <c r="T42" t="n">
-        <v>1254.561044051268</v>
+        <v>1504.337139263312</v>
       </c>
       <c r="U42" t="n">
-        <v>1026.358376588747</v>
+        <v>1504.337139263312</v>
       </c>
       <c r="V42" t="n">
-        <v>1026.358376588747</v>
+        <v>1504.337139263312</v>
       </c>
       <c r="W42" t="n">
-        <v>1026.358376588747</v>
+        <v>1250.099782535111</v>
       </c>
       <c r="X42" t="n">
-        <v>818.5068763832137</v>
+        <v>1042.248282329578</v>
       </c>
       <c r="Y42" t="n">
-        <v>818.5068763832137</v>
+        <v>834.4879835646241</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1402.173708844079</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C43" t="n">
-        <v>1402.173708844079</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D43" t="n">
-        <v>1402.173708844079</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E43" t="n">
-        <v>1402.173708844079</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F43" t="n">
-        <v>1402.173708844079</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G43" t="n">
-        <v>1402.173708844079</v>
+        <v>191.8257232724345</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y43" t="n">
-        <v>1402.173708844079</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>727.5334240793518</v>
+        <v>811.2618144142066</v>
       </c>
       <c r="C44" t="n">
-        <v>727.5334240793518</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D44" t="n">
-        <v>369.2677254726013</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E44" t="n">
-        <v>369.2677254726013</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F44" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H44" t="n">
         <v>32.45932575975218</v>
@@ -7648,16 +7648,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7672,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1550.630309748442</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1550.630309748442</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.966287987609</v>
+        <v>1550.630309748442</v>
       </c>
       <c r="U44" t="n">
-        <v>1622.966287987609</v>
+        <v>1550.630309748442</v>
       </c>
       <c r="V44" t="n">
-        <v>1622.966287987609</v>
+        <v>1550.630309748442</v>
       </c>
       <c r="W44" t="n">
-        <v>1270.197632717495</v>
+        <v>1197.861654478328</v>
       </c>
       <c r="X44" t="n">
-        <v>1117.672756055164</v>
+        <v>1197.861654478328</v>
       </c>
       <c r="Y44" t="n">
-        <v>727.5334240793518</v>
+        <v>1197.861654478328</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>222.0882603251556</v>
+        <v>676.7946829649775</v>
       </c>
       <c r="C45" t="n">
-        <v>222.0882603251556</v>
+        <v>676.7946829649775</v>
       </c>
       <c r="D45" t="n">
-        <v>222.0882603251556</v>
+        <v>527.8602733037262</v>
       </c>
       <c r="E45" t="n">
-        <v>222.0882603251556</v>
+        <v>368.6228182982707</v>
       </c>
       <c r="F45" t="n">
         <v>222.0882603251556</v>
@@ -7727,52 +7727,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20822116384403</v>
+        <v>201.1187329501917</v>
       </c>
       <c r="L45" t="n">
-        <v>147.3709770270845</v>
+        <v>498.8504879318549</v>
       </c>
       <c r="M45" t="n">
-        <v>546.7891136313474</v>
+        <v>898.2686245361178</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1374.035648130455</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894781</v>
+        <v>1374.035648130455</v>
       </c>
       <c r="V45" t="n">
-        <v>709.8087082577354</v>
+        <v>1138.883539898712</v>
       </c>
       <c r="W45" t="n">
-        <v>455.5713515295337</v>
+        <v>884.6461831705103</v>
       </c>
       <c r="X45" t="n">
-        <v>429.8485590901096</v>
+        <v>676.7946829649775</v>
       </c>
       <c r="Y45" t="n">
-        <v>222.0882603251556</v>
+        <v>676.7946829649775</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.82943156598947</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C46" t="n">
-        <v>71.82943156598947</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="F46" t="n">
         <v>32.45932575975218</v>
@@ -7845,13 +7845,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>71.82943156598947</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X46" t="n">
-        <v>71.82943156598947</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.82943156598947</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
   </sheetData>
@@ -8303,7 +8303,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>117.917222536309</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>270.4206501018624</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>251.9990040344217</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304798</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9248,7 +9248,7 @@
         <v>86.93262649026376</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.7959972113199</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>203.2271928126415</v>
+        <v>380.7598033349566</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,7 +9959,7 @@
         <v>86.93262649026376</v>
       </c>
       <c r="L27" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574524</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>174.18790452568</v>
+        <v>380.7598033349566</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10439,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>380.7598033349566</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>99.73813450275543</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10907,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>364.5878977387108</v>
+        <v>418.8785602873039</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026376</v>
+        <v>257.2956640563643</v>
       </c>
       <c r="L45" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,19 +23263,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>306.9349787968916</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.97193213363164</v>
+        <v>101.7755197183095</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23342,19 +23342,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -23390,16 +23390,16 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>71.36768015340448</v>
+        <v>85.40566091718961</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>126.4326563886826</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082892</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.971932133631583</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>132.6030594580666</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>135.3774576190215</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>51.83819362746142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10.61988836757476</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>159.8772180037952</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082894</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3046124576955</v>
+        <v>128.53187892014</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23737,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>280.0638302667963</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>99.28664770733081</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>165.2832744570139</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23822,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>76.80671259995299</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23910,7 +23910,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I19" t="n">
-        <v>74.14019829714285</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
         <v>74.67247646141476</v>
@@ -23949,10 +23949,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>213.1612385756531</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>327.7653614175474</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23989,7 +23989,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>108.0621587018076</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>202.7107073159006</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>110.7503997371547</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>7.156479150719463</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,7 +24174,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
         <v>219.4103988718534</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>118.7949056563661</v>
       </c>
     </row>
     <row r="23">
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>144.3189752705705</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,16 +24262,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>109.6588881535608</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24287,16 +24287,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>52.33889480304374</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.0282495084215</v>
@@ -24338,16 +24338,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>44.18816272336838</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>64.40170098194017</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
-        <v>219.4103988718534</v>
+        <v>180.4339941236784</v>
       </c>
       <c r="T25" t="n">
         <v>226.8162656893113</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>237.8224803437766</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24460,7 +24460,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>187.7594695105699</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>106.8609761368794</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>9.693876124923051</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>89.41444727151948</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24648,10 +24648,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
-        <v>165.4090611368575</v>
+        <v>59.32005692394502</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>226.8162656893113</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>186.7332506408623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>38.54147091924537</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>168.5023736266177</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24767,16 +24767,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
         <v>78.54202280713804</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>10.24881428779375</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>33.11095161242636</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>147.5019580580808</v>
@@ -24885,13 +24885,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
-        <v>165.4090611368575</v>
+        <v>148.4023490740992</v>
       </c>
       <c r="S31" t="n">
-        <v>120.7272614763987</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>211.5839663811071</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>22.63292842320658</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>159.1079591185653</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.0282495084215</v>
@@ -25016,7 +25016,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>189.2924225442929</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
-        <v>159.8772180037952</v>
+        <v>52.96246827112411</v>
       </c>
       <c r="I34" t="n">
         <v>147.5019580580808</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>186.7332506408625</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25207,19 +25207,19 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>101.3494285826187</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>109.6588881535608</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25235,22 +25235,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>132.2434371502107</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25289,19 +25289,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>78.52437462028965</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25365,7 +25365,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>187.8398609411364</v>
       </c>
       <c r="U37" t="n">
         <v>286.3046124576955</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9475443841691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G38" t="n">
         <v>8.97193213363164</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>207.858019997069</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>288.3965014193244</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>111.5033443244268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>36.66207463683455</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25599,10 +25599,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>120.7272614763991</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>128.2704163504529</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>165.5617011755328</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G41" t="n">
-        <v>196.6201338139596</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.9966114480445</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>48.38435545436194</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>52.96246827112424</v>
+        <v>2.104484466239711</v>
       </c>
       <c r="I43" t="n">
         <v>147.5019580580808</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G44" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
         <v>187.7594695105699</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>41.24306788892241</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>218.7314727827608</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25949,13 +25949,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.0282495084215</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>118.2798580383945</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>180.3074206884476</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26028,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>109.6390682700375</v>
+        <v>114.9710806029468</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.7266695472104</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>514841.3714520531</v>
+        <v>514841.3714520528</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>514841.3714520531</v>
+        <v>514841.3714520529</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>514841.3714520528</v>
+        <v>514841.3714520527</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>514841.3714520531</v>
+        <v>514841.3714520528</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>514841.3714520533</v>
+        <v>514841.3714520527</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>514841.3714520529</v>
+        <v>514841.3714520531</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>514841.3714520529</v>
+        <v>514841.3714520532</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>514841.3714520527</v>
+        <v>514841.371452053</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>514841.3714520533</v>
+        <v>514841.3714520527</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>514841.3714520529</v>
+        <v>514841.3714520528</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>514841.3714520531</v>
+        <v>514841.3714520532</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>514841.3714520528</v>
+        <v>514841.3714520531</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>267036.1213307581</v>
       </c>
       <c r="F2" t="n">
+        <v>267036.121330758</v>
+      </c>
+      <c r="G2" t="n">
         <v>267036.1213307581</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>267036.1213307579</v>
-      </c>
-      <c r="H2" t="n">
-        <v>267036.1213307581</v>
       </c>
       <c r="I2" t="n">
         <v>267036.121330758</v>
@@ -26340,22 +26340,22 @@
         <v>267036.1213307581</v>
       </c>
       <c r="K2" t="n">
-        <v>267036.1213307579</v>
+        <v>267036.121330758</v>
       </c>
       <c r="L2" t="n">
-        <v>267036.1213307579</v>
+        <v>267036.121330758</v>
       </c>
       <c r="M2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="N2" t="n">
         <v>267036.121330758</v>
       </c>
       <c r="O2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.1213307579</v>
       </c>
       <c r="P2" t="n">
-        <v>267036.121330758</v>
+        <v>267036.1213307579</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244788</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>34482.31175973668</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="F4" t="n">
         <v>34482.31175973668</v>
       </c>
       <c r="G4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="H4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="I4" t="n">
         <v>34482.31175973668</v>
@@ -26453,10 +26453,10 @@
         <v>34482.31175973668</v>
       </c>
       <c r="N4" t="n">
+        <v>34482.31175973668</v>
+      </c>
+      <c r="O4" t="n">
         <v>34482.31175973667</v>
-      </c>
-      <c r="O4" t="n">
-        <v>34482.31175973668</v>
       </c>
       <c r="P4" t="n">
         <v>34482.31175973668</v>
@@ -26481,25 +26481,25 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="L5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="M5" t="n">
         <v>27864.35291375756</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71505.03145115037</v>
+        <v>71505.03145115048</v>
       </c>
       <c r="C6" t="n">
-        <v>152274.4629826981</v>
+        <v>152274.4629826982</v>
       </c>
       <c r="D6" t="n">
-        <v>152274.4629826979</v>
+        <v>152274.4629826982</v>
       </c>
       <c r="E6" t="n">
-        <v>37749.2865320171</v>
+        <v>27904.68713864037</v>
       </c>
       <c r="F6" t="n">
-        <v>204689.4566572639</v>
+        <v>194844.857263887</v>
       </c>
       <c r="G6" t="n">
-        <v>204689.4566572637</v>
+        <v>194844.8572638871</v>
       </c>
       <c r="H6" t="n">
-        <v>204689.4566572639</v>
+        <v>194844.8572638869</v>
       </c>
       <c r="I6" t="n">
-        <v>204689.4566572637</v>
+        <v>194844.857263887</v>
       </c>
       <c r="J6" t="n">
-        <v>141629.5140581576</v>
+        <v>131784.9146647808</v>
       </c>
       <c r="K6" t="n">
-        <v>204689.4566572636</v>
+        <v>194844.857263887</v>
       </c>
       <c r="L6" t="n">
-        <v>204689.4566572637</v>
+        <v>194844.857263887</v>
       </c>
       <c r="M6" t="n">
-        <v>163638.758794816</v>
+        <v>153794.1594014392</v>
       </c>
       <c r="N6" t="n">
-        <v>204689.4566572638</v>
+        <v>194844.857263887</v>
       </c>
       <c r="O6" t="n">
-        <v>204689.4566572639</v>
+        <v>194844.8572638869</v>
       </c>
       <c r="P6" t="n">
-        <v>204689.4566572638</v>
+        <v>194844.8572638869</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192432</v>
+        <v>164.7272831192433</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>142.265735089176</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>333.812370168306</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>146.5077429405719</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27475,13 +27475,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>126.4086388240881</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27557,7 +27557,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>381.7025041237114</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>278.9163632865931</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27703,22 +27703,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>27.7083567581867</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27751,16 +27751,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>143.2289469005122</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27791,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27821,7 +27821,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8333861825618</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>290.6389069322254</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27912,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27952,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>216.0898641662364</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31934,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31943,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438473</v>
@@ -32013,25 +32013,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,7 +32071,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427703</v>
@@ -32080,22 +32080,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
         <v>40.24363958326609</v>
@@ -32104,7 +32104,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32147,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q16" t="n">
         <v>22.13234246735009</v>
@@ -32183,7 +32183,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I23" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L23" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M23" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N23" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T23" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,43 +32779,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H24" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I24" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K24" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R24" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H25" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J25" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K25" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L25" t="n">
         <v>39.29566048323129</v>
@@ -32882,7 +32882,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O25" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P25" t="n">
         <v>31.96707026225442</v>
@@ -32891,16 +32891,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R25" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S25" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34707,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -35023,7 +35023,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>30.98459604604529</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
-        <v>221.074800568285</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>110.3391532330937</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726432</v>
@@ -35658,7 +35658,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N14" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O14" t="n">
         <v>249.9811662707763</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696145</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>189.746603521051</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35807,16 +35807,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
         <v>61.94411832576036</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366292</v>
@@ -35980,10 +35980,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>60.02388433300664</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
@@ -36211,7 +36211,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>153.8813432790641</v>
+        <v>331.4139538013792</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K23" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L23" t="n">
         <v>274.8802469209098</v>
@@ -36378,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36457,7 +36457,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L25" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M25" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N25" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P25" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>87.03308673054588</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366292</v>
@@ -36691,10 +36691,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>141.3237492791392</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
@@ -36922,7 +36922,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>124.8420549921026</v>
+        <v>331.4139538013792</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37159,13 +37159,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>331.4139538013792</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37627,22 +37627,22 @@
         <v>177.5326105223148</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>315.2420482051334</v>
+        <v>369.5327107537265</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>38.06115762167967</v>
       </c>
       <c r="K41" t="n">
-        <v>179.0082576726431</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L41" t="n">
         <v>274.8802469209098</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -38037,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680312</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>170.3630375661006</v>
       </c>
       <c r="L45" t="n">
-        <v>87.03308673054588</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366292</v>
@@ -38113,10 +38113,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
